--- a/plan/TimeLine.xlsx
+++ b/plan/TimeLine.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作计划表" sheetId="1" r:id="rId1"/>
+    <sheet name="项目规划表" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$F$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作计划表!$C$1:$F$155</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,58 +44,234 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已上线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃</t>
+    <t>时间规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:11月底上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量:每日2~3小时(周一至周五),周末4+小时,每周约20小时工作量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真机调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过app store搜索游戏,下载,试玩.总结其核心玩法,总结并适当反向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础组件:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划文档:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值体系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳板属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始发射规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内购系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对策划文档所提出的进行制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心玩法制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板等功能制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台接入(ANE)等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真机调试:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果:iPhone4+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果:iPad2+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果:iPadMini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓:手机+平板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提审:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买开发者账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买苹果机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边工具:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片裁减工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSFL打包工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANT打包工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包,签名工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI编辑器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影片播放器:clip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子系统:starDust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具升级系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位:小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,93 +322,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -320,6 +430,72 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFCC0000"/>
       <color rgb="FFFF6600"/>
@@ -344,7 +520,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -379,7 +555,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,10 +587,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +621,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -622,993 +796,4223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:RZ155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:494" s="2" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <f>"周"&amp;WEEKDAY(H2,2)</f>
         <v>周7</v>
       </c>
-      <c r="I1" s="2" t="str">
-        <f t="shared" ref="I1:X1" si="0">"周"&amp;WEEKDAY(I2,2)</f>
-        <v>周1</v>
-      </c>
-      <c r="J1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周2</v>
-      </c>
-      <c r="K1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周3</v>
-      </c>
-      <c r="L1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周4</v>
-      </c>
-      <c r="M1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周5</v>
-      </c>
-      <c r="N1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周6</v>
-      </c>
-      <c r="O1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周7</v>
-      </c>
-      <c r="P1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周1</v>
-      </c>
-      <c r="Q1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周2</v>
-      </c>
-      <c r="R1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周3</v>
-      </c>
-      <c r="S1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周4</v>
-      </c>
-      <c r="T1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周5</v>
-      </c>
-      <c r="U1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周6</v>
-      </c>
-      <c r="V1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周7</v>
-      </c>
-      <c r="W1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周1</v>
-      </c>
-      <c r="X1" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>周2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2">
+      <c r="I1" s="1" t="str">
+        <f t="shared" ref="I1:BT1" si="0">"周"&amp;WEEKDAY(I2,2)</f>
+        <v>周1</v>
+      </c>
+      <c r="J1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周2</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周3</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周4</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周5</v>
+      </c>
+      <c r="N1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周6</v>
+      </c>
+      <c r="O1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周7</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周1</v>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周2</v>
+      </c>
+      <c r="R1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周3</v>
+      </c>
+      <c r="S1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周4</v>
+      </c>
+      <c r="T1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周5</v>
+      </c>
+      <c r="U1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周6</v>
+      </c>
+      <c r="V1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周7</v>
+      </c>
+      <c r="W1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周1</v>
+      </c>
+      <c r="X1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周2</v>
+      </c>
+      <c r="Y1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周3</v>
+      </c>
+      <c r="Z1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周4</v>
+      </c>
+      <c r="AA1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周5</v>
+      </c>
+      <c r="AB1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周6</v>
+      </c>
+      <c r="AC1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周7</v>
+      </c>
+      <c r="AD1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周1</v>
+      </c>
+      <c r="AE1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周2</v>
+      </c>
+      <c r="AF1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周3</v>
+      </c>
+      <c r="AG1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周4</v>
+      </c>
+      <c r="AH1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周5</v>
+      </c>
+      <c r="AI1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周6</v>
+      </c>
+      <c r="AJ1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周7</v>
+      </c>
+      <c r="AK1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周1</v>
+      </c>
+      <c r="AL1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周2</v>
+      </c>
+      <c r="AM1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周3</v>
+      </c>
+      <c r="AN1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周4</v>
+      </c>
+      <c r="AO1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周5</v>
+      </c>
+      <c r="AP1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周6</v>
+      </c>
+      <c r="AQ1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周7</v>
+      </c>
+      <c r="AR1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周1</v>
+      </c>
+      <c r="AS1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周2</v>
+      </c>
+      <c r="AT1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周3</v>
+      </c>
+      <c r="AU1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周4</v>
+      </c>
+      <c r="AV1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周5</v>
+      </c>
+      <c r="AW1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周6</v>
+      </c>
+      <c r="AX1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周7</v>
+      </c>
+      <c r="AY1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周1</v>
+      </c>
+      <c r="AZ1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周2</v>
+      </c>
+      <c r="BA1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周3</v>
+      </c>
+      <c r="BB1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周4</v>
+      </c>
+      <c r="BC1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周5</v>
+      </c>
+      <c r="BD1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周6</v>
+      </c>
+      <c r="BE1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周7</v>
+      </c>
+      <c r="BF1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周1</v>
+      </c>
+      <c r="BG1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周2</v>
+      </c>
+      <c r="BH1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周3</v>
+      </c>
+      <c r="BI1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周4</v>
+      </c>
+      <c r="BJ1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周5</v>
+      </c>
+      <c r="BK1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周6</v>
+      </c>
+      <c r="BL1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周7</v>
+      </c>
+      <c r="BM1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周1</v>
+      </c>
+      <c r="BN1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周2</v>
+      </c>
+      <c r="BO1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周3</v>
+      </c>
+      <c r="BP1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周4</v>
+      </c>
+      <c r="BQ1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周5</v>
+      </c>
+      <c r="BR1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周6</v>
+      </c>
+      <c r="BS1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周7</v>
+      </c>
+      <c r="BT1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>周1</v>
+      </c>
+      <c r="BU1" s="1" t="str">
+        <f t="shared" ref="BU1:EF1" si="1">"周"&amp;WEEKDAY(BU2,2)</f>
+        <v>周2</v>
+      </c>
+      <c r="BV1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周3</v>
+      </c>
+      <c r="BW1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周4</v>
+      </c>
+      <c r="BX1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周5</v>
+      </c>
+      <c r="BY1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周6</v>
+      </c>
+      <c r="BZ1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周7</v>
+      </c>
+      <c r="CA1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周1</v>
+      </c>
+      <c r="CB1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周2</v>
+      </c>
+      <c r="CC1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周3</v>
+      </c>
+      <c r="CD1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周4</v>
+      </c>
+      <c r="CE1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周5</v>
+      </c>
+      <c r="CF1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周6</v>
+      </c>
+      <c r="CG1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周7</v>
+      </c>
+      <c r="CH1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周1</v>
+      </c>
+      <c r="CI1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周2</v>
+      </c>
+      <c r="CJ1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周3</v>
+      </c>
+      <c r="CK1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周4</v>
+      </c>
+      <c r="CL1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周5</v>
+      </c>
+      <c r="CM1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周6</v>
+      </c>
+      <c r="CN1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周7</v>
+      </c>
+      <c r="CO1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周1</v>
+      </c>
+      <c r="CP1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周2</v>
+      </c>
+      <c r="CQ1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周3</v>
+      </c>
+      <c r="CR1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周4</v>
+      </c>
+      <c r="CS1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周5</v>
+      </c>
+      <c r="CT1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周6</v>
+      </c>
+      <c r="CU1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周7</v>
+      </c>
+      <c r="CV1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周1</v>
+      </c>
+      <c r="CW1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周2</v>
+      </c>
+      <c r="CX1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周3</v>
+      </c>
+      <c r="CY1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周4</v>
+      </c>
+      <c r="CZ1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周5</v>
+      </c>
+      <c r="DA1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周6</v>
+      </c>
+      <c r="DB1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周7</v>
+      </c>
+      <c r="DC1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周1</v>
+      </c>
+      <c r="DD1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周2</v>
+      </c>
+      <c r="DE1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周3</v>
+      </c>
+      <c r="DF1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周4</v>
+      </c>
+      <c r="DG1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周5</v>
+      </c>
+      <c r="DH1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周6</v>
+      </c>
+      <c r="DI1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周7</v>
+      </c>
+      <c r="DJ1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周1</v>
+      </c>
+      <c r="DK1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周2</v>
+      </c>
+      <c r="DL1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周3</v>
+      </c>
+      <c r="DM1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周4</v>
+      </c>
+      <c r="DN1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周5</v>
+      </c>
+      <c r="DO1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周6</v>
+      </c>
+      <c r="DP1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周7</v>
+      </c>
+      <c r="DQ1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周1</v>
+      </c>
+      <c r="DR1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周2</v>
+      </c>
+      <c r="DS1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周3</v>
+      </c>
+      <c r="DT1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周4</v>
+      </c>
+      <c r="DU1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周5</v>
+      </c>
+      <c r="DV1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周6</v>
+      </c>
+      <c r="DW1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周7</v>
+      </c>
+      <c r="DX1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周1</v>
+      </c>
+      <c r="DY1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周2</v>
+      </c>
+      <c r="DZ1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周3</v>
+      </c>
+      <c r="EA1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周4</v>
+      </c>
+      <c r="EB1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周5</v>
+      </c>
+      <c r="EC1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周6</v>
+      </c>
+      <c r="ED1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周7</v>
+      </c>
+      <c r="EE1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周1</v>
+      </c>
+      <c r="EF1" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>周2</v>
+      </c>
+      <c r="EG1" s="1" t="str">
+        <f t="shared" ref="EG1:GR1" si="2">"周"&amp;WEEKDAY(EG2,2)</f>
+        <v>周3</v>
+      </c>
+      <c r="EH1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周4</v>
+      </c>
+      <c r="EI1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周5</v>
+      </c>
+      <c r="EJ1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周6</v>
+      </c>
+      <c r="EK1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周7</v>
+      </c>
+      <c r="EL1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周1</v>
+      </c>
+      <c r="EM1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周2</v>
+      </c>
+      <c r="EN1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周3</v>
+      </c>
+      <c r="EO1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周4</v>
+      </c>
+      <c r="EP1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周5</v>
+      </c>
+      <c r="EQ1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周6</v>
+      </c>
+      <c r="ER1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周7</v>
+      </c>
+      <c r="ES1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周1</v>
+      </c>
+      <c r="ET1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周2</v>
+      </c>
+      <c r="EU1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周3</v>
+      </c>
+      <c r="EV1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周4</v>
+      </c>
+      <c r="EW1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周5</v>
+      </c>
+      <c r="EX1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周6</v>
+      </c>
+      <c r="EY1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周7</v>
+      </c>
+      <c r="EZ1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周1</v>
+      </c>
+      <c r="FA1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周2</v>
+      </c>
+      <c r="FB1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周3</v>
+      </c>
+      <c r="FC1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周4</v>
+      </c>
+      <c r="FD1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周5</v>
+      </c>
+      <c r="FE1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周6</v>
+      </c>
+      <c r="FF1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周7</v>
+      </c>
+      <c r="FG1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周1</v>
+      </c>
+      <c r="FH1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周2</v>
+      </c>
+      <c r="FI1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周3</v>
+      </c>
+      <c r="FJ1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周4</v>
+      </c>
+      <c r="FK1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周5</v>
+      </c>
+      <c r="FL1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周6</v>
+      </c>
+      <c r="FM1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周7</v>
+      </c>
+      <c r="FN1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周1</v>
+      </c>
+      <c r="FO1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周2</v>
+      </c>
+      <c r="FP1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周3</v>
+      </c>
+      <c r="FQ1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周4</v>
+      </c>
+      <c r="FR1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周5</v>
+      </c>
+      <c r="FS1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周6</v>
+      </c>
+      <c r="FT1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周7</v>
+      </c>
+      <c r="FU1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周1</v>
+      </c>
+      <c r="FV1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周2</v>
+      </c>
+      <c r="FW1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周3</v>
+      </c>
+      <c r="FX1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周4</v>
+      </c>
+      <c r="FY1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周5</v>
+      </c>
+      <c r="FZ1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周6</v>
+      </c>
+      <c r="GA1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周7</v>
+      </c>
+      <c r="GB1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周1</v>
+      </c>
+      <c r="GC1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周2</v>
+      </c>
+      <c r="GD1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周3</v>
+      </c>
+      <c r="GE1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周4</v>
+      </c>
+      <c r="GF1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周5</v>
+      </c>
+      <c r="GG1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周6</v>
+      </c>
+      <c r="GH1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周7</v>
+      </c>
+      <c r="GI1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周1</v>
+      </c>
+      <c r="GJ1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周2</v>
+      </c>
+      <c r="GK1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周3</v>
+      </c>
+      <c r="GL1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周4</v>
+      </c>
+      <c r="GM1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周5</v>
+      </c>
+      <c r="GN1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周6</v>
+      </c>
+      <c r="GO1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周7</v>
+      </c>
+      <c r="GP1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周1</v>
+      </c>
+      <c r="GQ1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周2</v>
+      </c>
+      <c r="GR1" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>周3</v>
+      </c>
+      <c r="GS1" s="1" t="str">
+        <f t="shared" ref="GS1:JD1" si="3">"周"&amp;WEEKDAY(GS2,2)</f>
+        <v>周4</v>
+      </c>
+      <c r="GT1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周5</v>
+      </c>
+      <c r="GU1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周6</v>
+      </c>
+      <c r="GV1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周7</v>
+      </c>
+      <c r="GW1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周1</v>
+      </c>
+      <c r="GX1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周2</v>
+      </c>
+      <c r="GY1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周3</v>
+      </c>
+      <c r="GZ1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周4</v>
+      </c>
+      <c r="HA1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周5</v>
+      </c>
+      <c r="HB1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周6</v>
+      </c>
+      <c r="HC1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周7</v>
+      </c>
+      <c r="HD1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周1</v>
+      </c>
+      <c r="HE1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周2</v>
+      </c>
+      <c r="HF1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周3</v>
+      </c>
+      <c r="HG1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周4</v>
+      </c>
+      <c r="HH1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周5</v>
+      </c>
+      <c r="HI1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周6</v>
+      </c>
+      <c r="HJ1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周7</v>
+      </c>
+      <c r="HK1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周1</v>
+      </c>
+      <c r="HL1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周2</v>
+      </c>
+      <c r="HM1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周3</v>
+      </c>
+      <c r="HN1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周4</v>
+      </c>
+      <c r="HO1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周5</v>
+      </c>
+      <c r="HP1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周6</v>
+      </c>
+      <c r="HQ1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周7</v>
+      </c>
+      <c r="HR1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周1</v>
+      </c>
+      <c r="HS1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周2</v>
+      </c>
+      <c r="HT1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周3</v>
+      </c>
+      <c r="HU1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周4</v>
+      </c>
+      <c r="HV1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周5</v>
+      </c>
+      <c r="HW1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周6</v>
+      </c>
+      <c r="HX1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周7</v>
+      </c>
+      <c r="HY1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周1</v>
+      </c>
+      <c r="HZ1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周2</v>
+      </c>
+      <c r="IA1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周3</v>
+      </c>
+      <c r="IB1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周4</v>
+      </c>
+      <c r="IC1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周5</v>
+      </c>
+      <c r="ID1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周6</v>
+      </c>
+      <c r="IE1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周7</v>
+      </c>
+      <c r="IF1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周1</v>
+      </c>
+      <c r="IG1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周2</v>
+      </c>
+      <c r="IH1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周3</v>
+      </c>
+      <c r="II1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周4</v>
+      </c>
+      <c r="IJ1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周5</v>
+      </c>
+      <c r="IK1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周6</v>
+      </c>
+      <c r="IL1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周7</v>
+      </c>
+      <c r="IM1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周1</v>
+      </c>
+      <c r="IN1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周2</v>
+      </c>
+      <c r="IO1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周3</v>
+      </c>
+      <c r="IP1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周4</v>
+      </c>
+      <c r="IQ1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周5</v>
+      </c>
+      <c r="IR1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周6</v>
+      </c>
+      <c r="IS1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周7</v>
+      </c>
+      <c r="IT1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周1</v>
+      </c>
+      <c r="IU1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周2</v>
+      </c>
+      <c r="IV1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周3</v>
+      </c>
+      <c r="IW1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周4</v>
+      </c>
+      <c r="IX1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周5</v>
+      </c>
+      <c r="IY1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周6</v>
+      </c>
+      <c r="IZ1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周7</v>
+      </c>
+      <c r="JA1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周1</v>
+      </c>
+      <c r="JB1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周2</v>
+      </c>
+      <c r="JC1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周3</v>
+      </c>
+      <c r="JD1" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>周4</v>
+      </c>
+      <c r="JE1" s="1" t="str">
+        <f t="shared" ref="JE1:LP1" si="4">"周"&amp;WEEKDAY(JE2,2)</f>
+        <v>周5</v>
+      </c>
+      <c r="JF1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周6</v>
+      </c>
+      <c r="JG1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周7</v>
+      </c>
+      <c r="JH1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周1</v>
+      </c>
+      <c r="JI1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周2</v>
+      </c>
+      <c r="JJ1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周3</v>
+      </c>
+      <c r="JK1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周4</v>
+      </c>
+      <c r="JL1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周5</v>
+      </c>
+      <c r="JM1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周6</v>
+      </c>
+      <c r="JN1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周7</v>
+      </c>
+      <c r="JO1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周1</v>
+      </c>
+      <c r="JP1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周2</v>
+      </c>
+      <c r="JQ1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周3</v>
+      </c>
+      <c r="JR1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周4</v>
+      </c>
+      <c r="JS1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周5</v>
+      </c>
+      <c r="JT1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周6</v>
+      </c>
+      <c r="JU1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周7</v>
+      </c>
+      <c r="JV1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周1</v>
+      </c>
+      <c r="JW1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周2</v>
+      </c>
+      <c r="JX1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周3</v>
+      </c>
+      <c r="JY1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周4</v>
+      </c>
+      <c r="JZ1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周5</v>
+      </c>
+      <c r="KA1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周6</v>
+      </c>
+      <c r="KB1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周7</v>
+      </c>
+      <c r="KC1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周1</v>
+      </c>
+      <c r="KD1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周2</v>
+      </c>
+      <c r="KE1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周3</v>
+      </c>
+      <c r="KF1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周4</v>
+      </c>
+      <c r="KG1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周5</v>
+      </c>
+      <c r="KH1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周6</v>
+      </c>
+      <c r="KI1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周7</v>
+      </c>
+      <c r="KJ1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周1</v>
+      </c>
+      <c r="KK1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周2</v>
+      </c>
+      <c r="KL1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周3</v>
+      </c>
+      <c r="KM1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周4</v>
+      </c>
+      <c r="KN1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周5</v>
+      </c>
+      <c r="KO1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周6</v>
+      </c>
+      <c r="KP1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周7</v>
+      </c>
+      <c r="KQ1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周1</v>
+      </c>
+      <c r="KR1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周2</v>
+      </c>
+      <c r="KS1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周3</v>
+      </c>
+      <c r="KT1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周4</v>
+      </c>
+      <c r="KU1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周5</v>
+      </c>
+      <c r="KV1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周6</v>
+      </c>
+      <c r="KW1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周7</v>
+      </c>
+      <c r="KX1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周1</v>
+      </c>
+      <c r="KY1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周2</v>
+      </c>
+      <c r="KZ1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周3</v>
+      </c>
+      <c r="LA1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周4</v>
+      </c>
+      <c r="LB1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周5</v>
+      </c>
+      <c r="LC1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周6</v>
+      </c>
+      <c r="LD1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周7</v>
+      </c>
+      <c r="LE1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周1</v>
+      </c>
+      <c r="LF1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周2</v>
+      </c>
+      <c r="LG1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周3</v>
+      </c>
+      <c r="LH1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周4</v>
+      </c>
+      <c r="LI1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周5</v>
+      </c>
+      <c r="LJ1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周6</v>
+      </c>
+      <c r="LK1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周7</v>
+      </c>
+      <c r="LL1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周1</v>
+      </c>
+      <c r="LM1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周2</v>
+      </c>
+      <c r="LN1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周3</v>
+      </c>
+      <c r="LO1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周4</v>
+      </c>
+      <c r="LP1" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>周5</v>
+      </c>
+      <c r="LQ1" s="1" t="str">
+        <f t="shared" ref="LQ1:OB1" si="5">"周"&amp;WEEKDAY(LQ2,2)</f>
+        <v>周6</v>
+      </c>
+      <c r="LR1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周7</v>
+      </c>
+      <c r="LS1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周1</v>
+      </c>
+      <c r="LT1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周2</v>
+      </c>
+      <c r="LU1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周3</v>
+      </c>
+      <c r="LV1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周4</v>
+      </c>
+      <c r="LW1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周5</v>
+      </c>
+      <c r="LX1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周6</v>
+      </c>
+      <c r="LY1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周7</v>
+      </c>
+      <c r="LZ1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周1</v>
+      </c>
+      <c r="MA1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周2</v>
+      </c>
+      <c r="MB1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周3</v>
+      </c>
+      <c r="MC1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周4</v>
+      </c>
+      <c r="MD1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周5</v>
+      </c>
+      <c r="ME1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周6</v>
+      </c>
+      <c r="MF1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周7</v>
+      </c>
+      <c r="MG1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周1</v>
+      </c>
+      <c r="MH1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周2</v>
+      </c>
+      <c r="MI1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周3</v>
+      </c>
+      <c r="MJ1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周4</v>
+      </c>
+      <c r="MK1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周5</v>
+      </c>
+      <c r="ML1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周6</v>
+      </c>
+      <c r="MM1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周7</v>
+      </c>
+      <c r="MN1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周1</v>
+      </c>
+      <c r="MO1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周2</v>
+      </c>
+      <c r="MP1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周3</v>
+      </c>
+      <c r="MQ1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周4</v>
+      </c>
+      <c r="MR1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周5</v>
+      </c>
+      <c r="MS1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周6</v>
+      </c>
+      <c r="MT1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周7</v>
+      </c>
+      <c r="MU1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周1</v>
+      </c>
+      <c r="MV1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周2</v>
+      </c>
+      <c r="MW1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周3</v>
+      </c>
+      <c r="MX1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周4</v>
+      </c>
+      <c r="MY1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周5</v>
+      </c>
+      <c r="MZ1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周6</v>
+      </c>
+      <c r="NA1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周7</v>
+      </c>
+      <c r="NB1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周1</v>
+      </c>
+      <c r="NC1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周2</v>
+      </c>
+      <c r="ND1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周3</v>
+      </c>
+      <c r="NE1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周4</v>
+      </c>
+      <c r="NF1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周5</v>
+      </c>
+      <c r="NG1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周6</v>
+      </c>
+      <c r="NH1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周7</v>
+      </c>
+      <c r="NI1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周1</v>
+      </c>
+      <c r="NJ1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周2</v>
+      </c>
+      <c r="NK1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周3</v>
+      </c>
+      <c r="NL1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周4</v>
+      </c>
+      <c r="NM1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周5</v>
+      </c>
+      <c r="NN1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周6</v>
+      </c>
+      <c r="NO1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周7</v>
+      </c>
+      <c r="NP1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周1</v>
+      </c>
+      <c r="NQ1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周2</v>
+      </c>
+      <c r="NR1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周3</v>
+      </c>
+      <c r="NS1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周4</v>
+      </c>
+      <c r="NT1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周5</v>
+      </c>
+      <c r="NU1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周6</v>
+      </c>
+      <c r="NV1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周7</v>
+      </c>
+      <c r="NW1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周1</v>
+      </c>
+      <c r="NX1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周2</v>
+      </c>
+      <c r="NY1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周3</v>
+      </c>
+      <c r="NZ1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周4</v>
+      </c>
+      <c r="OA1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周5</v>
+      </c>
+      <c r="OB1" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>周6</v>
+      </c>
+      <c r="OC1" s="1" t="str">
+        <f t="shared" ref="OC1:QN1" si="6">"周"&amp;WEEKDAY(OC2,2)</f>
+        <v>周7</v>
+      </c>
+      <c r="OD1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周1</v>
+      </c>
+      <c r="OE1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周2</v>
+      </c>
+      <c r="OF1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周3</v>
+      </c>
+      <c r="OG1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周4</v>
+      </c>
+      <c r="OH1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周5</v>
+      </c>
+      <c r="OI1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周6</v>
+      </c>
+      <c r="OJ1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周7</v>
+      </c>
+      <c r="OK1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周1</v>
+      </c>
+      <c r="OL1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周2</v>
+      </c>
+      <c r="OM1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周3</v>
+      </c>
+      <c r="ON1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周4</v>
+      </c>
+      <c r="OO1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周5</v>
+      </c>
+      <c r="OP1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周6</v>
+      </c>
+      <c r="OQ1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周7</v>
+      </c>
+      <c r="OR1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周1</v>
+      </c>
+      <c r="OS1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周2</v>
+      </c>
+      <c r="OT1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周3</v>
+      </c>
+      <c r="OU1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周4</v>
+      </c>
+      <c r="OV1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周5</v>
+      </c>
+      <c r="OW1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周6</v>
+      </c>
+      <c r="OX1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周7</v>
+      </c>
+      <c r="OY1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周1</v>
+      </c>
+      <c r="OZ1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周2</v>
+      </c>
+      <c r="PA1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周3</v>
+      </c>
+      <c r="PB1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周4</v>
+      </c>
+      <c r="PC1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周5</v>
+      </c>
+      <c r="PD1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周6</v>
+      </c>
+      <c r="PE1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周7</v>
+      </c>
+      <c r="PF1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周1</v>
+      </c>
+      <c r="PG1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周2</v>
+      </c>
+      <c r="PH1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周3</v>
+      </c>
+      <c r="PI1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周4</v>
+      </c>
+      <c r="PJ1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周5</v>
+      </c>
+      <c r="PK1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周6</v>
+      </c>
+      <c r="PL1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周7</v>
+      </c>
+      <c r="PM1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周1</v>
+      </c>
+      <c r="PN1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周2</v>
+      </c>
+      <c r="PO1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周3</v>
+      </c>
+      <c r="PP1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周4</v>
+      </c>
+      <c r="PQ1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周5</v>
+      </c>
+      <c r="PR1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周6</v>
+      </c>
+      <c r="PS1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周7</v>
+      </c>
+      <c r="PT1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周1</v>
+      </c>
+      <c r="PU1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周2</v>
+      </c>
+      <c r="PV1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周3</v>
+      </c>
+      <c r="PW1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周4</v>
+      </c>
+      <c r="PX1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周5</v>
+      </c>
+      <c r="PY1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周6</v>
+      </c>
+      <c r="PZ1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周7</v>
+      </c>
+      <c r="QA1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周1</v>
+      </c>
+      <c r="QB1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周2</v>
+      </c>
+      <c r="QC1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周3</v>
+      </c>
+      <c r="QD1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周4</v>
+      </c>
+      <c r="QE1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周5</v>
+      </c>
+      <c r="QF1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周6</v>
+      </c>
+      <c r="QG1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周7</v>
+      </c>
+      <c r="QH1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周1</v>
+      </c>
+      <c r="QI1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周2</v>
+      </c>
+      <c r="QJ1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周3</v>
+      </c>
+      <c r="QK1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周4</v>
+      </c>
+      <c r="QL1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周5</v>
+      </c>
+      <c r="QM1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周6</v>
+      </c>
+      <c r="QN1" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>周7</v>
+      </c>
+      <c r="QO1" s="1" t="str">
+        <f t="shared" ref="QO1:RZ1" si="7">"周"&amp;WEEKDAY(QO2,2)</f>
+        <v>周1</v>
+      </c>
+      <c r="QP1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周2</v>
+      </c>
+      <c r="QQ1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周3</v>
+      </c>
+      <c r="QR1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周4</v>
+      </c>
+      <c r="QS1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周5</v>
+      </c>
+      <c r="QT1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周6</v>
+      </c>
+      <c r="QU1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周7</v>
+      </c>
+      <c r="QV1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周1</v>
+      </c>
+      <c r="QW1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周2</v>
+      </c>
+      <c r="QX1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周3</v>
+      </c>
+      <c r="QY1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周4</v>
+      </c>
+      <c r="QZ1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周5</v>
+      </c>
+      <c r="RA1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周6</v>
+      </c>
+      <c r="RB1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周7</v>
+      </c>
+      <c r="RC1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周1</v>
+      </c>
+      <c r="RD1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周2</v>
+      </c>
+      <c r="RE1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周3</v>
+      </c>
+      <c r="RF1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周4</v>
+      </c>
+      <c r="RG1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周5</v>
+      </c>
+      <c r="RH1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周6</v>
+      </c>
+      <c r="RI1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周7</v>
+      </c>
+      <c r="RJ1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周1</v>
+      </c>
+      <c r="RK1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周2</v>
+      </c>
+      <c r="RL1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周3</v>
+      </c>
+      <c r="RM1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周4</v>
+      </c>
+      <c r="RN1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周5</v>
+      </c>
+      <c r="RO1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周6</v>
+      </c>
+      <c r="RP1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周7</v>
+      </c>
+      <c r="RQ1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周1</v>
+      </c>
+      <c r="RR1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周2</v>
+      </c>
+      <c r="RS1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周3</v>
+      </c>
+      <c r="RT1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周4</v>
+      </c>
+      <c r="RU1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周5</v>
+      </c>
+      <c r="RV1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周6</v>
+      </c>
+      <c r="RW1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周7</v>
+      </c>
+      <c r="RX1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周1</v>
+      </c>
+      <c r="RY1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周2</v>
+      </c>
+      <c r="RZ1" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>周3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:494" s="2" customFormat="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1">
         <v>41910</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>41911</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>41912</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>41913</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>41914</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>41915</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>41916</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>41917</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>41918</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>41919</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>41920</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>41921</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>41922</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>41923</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>41924</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>41925</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>41926</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y2" s="1">
+        <v>41927</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>41928</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>41929</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>41930</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>41931</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>41932</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>41933</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>41934</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>41935</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>41936</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>41937</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>41938</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>41939</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>41940</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>41941</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>41942</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>41943</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>41944</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>41945</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>41946</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>41947</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>41948</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>41949</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>41950</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>41951</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>41952</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>41953</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>41954</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>41955</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>41956</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>41957</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>41958</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>41959</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>41960</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>41961</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>41962</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>41963</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>41964</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>41965</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>41966</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>41967</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>41968</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>41969</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>41970</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>41971</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>41972</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>41973</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>41974</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>41975</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>41976</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>41977</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>41978</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>41979</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>41980</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>41981</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>41982</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>41983</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>41984</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>41985</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>41986</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>41987</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>41988</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>41989</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>41990</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>41991</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>41992</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>41993</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>41994</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>41995</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>41996</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>41997</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>41998</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>41999</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>42000</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>42001</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>42002</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>42003</v>
+      </c>
+      <c r="CX2" s="1">
+        <v>42004</v>
+      </c>
+      <c r="CY2" s="1">
+        <v>42005</v>
+      </c>
+      <c r="CZ2" s="1">
+        <v>42006</v>
+      </c>
+      <c r="DA2" s="1">
+        <v>42007</v>
+      </c>
+      <c r="DB2" s="1">
+        <v>42008</v>
+      </c>
+      <c r="DC2" s="1">
+        <v>42009</v>
+      </c>
+      <c r="DD2" s="1">
+        <v>42010</v>
+      </c>
+      <c r="DE2" s="1">
+        <v>42011</v>
+      </c>
+      <c r="DF2" s="1">
+        <v>42012</v>
+      </c>
+      <c r="DG2" s="1">
+        <v>42013</v>
+      </c>
+      <c r="DH2" s="1">
+        <v>42014</v>
+      </c>
+      <c r="DI2" s="1">
+        <v>42015</v>
+      </c>
+      <c r="DJ2" s="1">
+        <v>42016</v>
+      </c>
+      <c r="DK2" s="1">
+        <v>42017</v>
+      </c>
+      <c r="DL2" s="1">
+        <v>42018</v>
+      </c>
+      <c r="DM2" s="1">
+        <v>42019</v>
+      </c>
+      <c r="DN2" s="1">
+        <v>42020</v>
+      </c>
+      <c r="DO2" s="1">
+        <v>42021</v>
+      </c>
+      <c r="DP2" s="1">
+        <v>42022</v>
+      </c>
+      <c r="DQ2" s="1">
+        <v>42023</v>
+      </c>
+      <c r="DR2" s="1">
+        <v>42024</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>42025</v>
+      </c>
+      <c r="DT2" s="1">
+        <v>42026</v>
+      </c>
+      <c r="DU2" s="1">
+        <v>42027</v>
+      </c>
+      <c r="DV2" s="1">
+        <v>42028</v>
+      </c>
+      <c r="DW2" s="1">
+        <v>42029</v>
+      </c>
+      <c r="DX2" s="1">
+        <v>42030</v>
+      </c>
+      <c r="DY2" s="1">
+        <v>42031</v>
+      </c>
+      <c r="DZ2" s="1">
+        <v>42032</v>
+      </c>
+      <c r="EA2" s="1">
+        <v>42033</v>
+      </c>
+      <c r="EB2" s="1">
+        <v>42034</v>
+      </c>
+      <c r="EC2" s="1">
+        <v>42035</v>
+      </c>
+      <c r="ED2" s="1">
+        <v>42036</v>
+      </c>
+      <c r="EE2" s="1">
+        <v>42037</v>
+      </c>
+      <c r="EF2" s="1">
+        <v>42038</v>
+      </c>
+      <c r="EG2" s="1">
+        <v>42039</v>
+      </c>
+      <c r="EH2" s="1">
+        <v>42040</v>
+      </c>
+      <c r="EI2" s="1">
+        <v>42041</v>
+      </c>
+      <c r="EJ2" s="1">
+        <v>42042</v>
+      </c>
+      <c r="EK2" s="1">
+        <v>42043</v>
+      </c>
+      <c r="EL2" s="1">
+        <v>42044</v>
+      </c>
+      <c r="EM2" s="1">
+        <v>42045</v>
+      </c>
+      <c r="EN2" s="1">
+        <v>42046</v>
+      </c>
+      <c r="EO2" s="1">
+        <v>42047</v>
+      </c>
+      <c r="EP2" s="1">
+        <v>42048</v>
+      </c>
+      <c r="EQ2" s="1">
+        <v>42049</v>
+      </c>
+      <c r="ER2" s="1">
+        <v>42050</v>
+      </c>
+      <c r="ES2" s="1">
+        <v>42051</v>
+      </c>
+      <c r="ET2" s="1">
+        <v>42052</v>
+      </c>
+      <c r="EU2" s="1">
+        <v>42053</v>
+      </c>
+      <c r="EV2" s="1">
+        <v>42054</v>
+      </c>
+      <c r="EW2" s="1">
+        <v>42055</v>
+      </c>
+      <c r="EX2" s="1">
+        <v>42056</v>
+      </c>
+      <c r="EY2" s="1">
+        <v>42057</v>
+      </c>
+      <c r="EZ2" s="1">
+        <v>42058</v>
+      </c>
+      <c r="FA2" s="1">
+        <v>42059</v>
+      </c>
+      <c r="FB2" s="1">
+        <v>42060</v>
+      </c>
+      <c r="FC2" s="1">
+        <v>42061</v>
+      </c>
+      <c r="FD2" s="1">
+        <v>42062</v>
+      </c>
+      <c r="FE2" s="1">
+        <v>42063</v>
+      </c>
+      <c r="FF2" s="1">
+        <v>42064</v>
+      </c>
+      <c r="FG2" s="1">
+        <v>42065</v>
+      </c>
+      <c r="FH2" s="1">
+        <v>42066</v>
+      </c>
+      <c r="FI2" s="1">
+        <v>42067</v>
+      </c>
+      <c r="FJ2" s="1">
+        <v>42068</v>
+      </c>
+      <c r="FK2" s="1">
+        <v>42069</v>
+      </c>
+      <c r="FL2" s="1">
+        <v>42070</v>
+      </c>
+      <c r="FM2" s="1">
+        <v>42071</v>
+      </c>
+      <c r="FN2" s="1">
+        <v>42072</v>
+      </c>
+      <c r="FO2" s="1">
+        <v>42073</v>
+      </c>
+      <c r="FP2" s="1">
+        <v>42074</v>
+      </c>
+      <c r="FQ2" s="1">
+        <v>42075</v>
+      </c>
+      <c r="FR2" s="1">
+        <v>42076</v>
+      </c>
+      <c r="FS2" s="1">
+        <v>42077</v>
+      </c>
+      <c r="FT2" s="1">
+        <v>42078</v>
+      </c>
+      <c r="FU2" s="1">
+        <v>42079</v>
+      </c>
+      <c r="FV2" s="1">
+        <v>42080</v>
+      </c>
+      <c r="FW2" s="1">
+        <v>42081</v>
+      </c>
+      <c r="FX2" s="1">
+        <v>42082</v>
+      </c>
+      <c r="FY2" s="1">
+        <v>42083</v>
+      </c>
+      <c r="FZ2" s="1">
+        <v>42084</v>
+      </c>
+      <c r="GA2" s="1">
+        <v>42085</v>
+      </c>
+      <c r="GB2" s="1">
+        <v>42086</v>
+      </c>
+      <c r="GC2" s="1">
+        <v>42087</v>
+      </c>
+      <c r="GD2" s="1">
+        <v>42088</v>
+      </c>
+      <c r="GE2" s="1">
+        <v>42089</v>
+      </c>
+      <c r="GF2" s="1">
+        <v>42090</v>
+      </c>
+      <c r="GG2" s="1">
+        <v>42091</v>
+      </c>
+      <c r="GH2" s="1">
+        <v>42092</v>
+      </c>
+      <c r="GI2" s="1">
+        <v>42093</v>
+      </c>
+      <c r="GJ2" s="1">
+        <v>42094</v>
+      </c>
+      <c r="GK2" s="1">
+        <v>42095</v>
+      </c>
+      <c r="GL2" s="1">
+        <v>42096</v>
+      </c>
+      <c r="GM2" s="1">
+        <v>42097</v>
+      </c>
+      <c r="GN2" s="1">
+        <v>42098</v>
+      </c>
+      <c r="GO2" s="1">
+        <v>42099</v>
+      </c>
+      <c r="GP2" s="1">
+        <v>42100</v>
+      </c>
+      <c r="GQ2" s="1">
+        <v>42101</v>
+      </c>
+      <c r="GR2" s="1">
+        <v>42102</v>
+      </c>
+      <c r="GS2" s="1">
+        <v>42103</v>
+      </c>
+      <c r="GT2" s="1">
+        <v>42104</v>
+      </c>
+      <c r="GU2" s="1">
+        <v>42105</v>
+      </c>
+      <c r="GV2" s="1">
+        <v>42106</v>
+      </c>
+      <c r="GW2" s="1">
+        <v>42107</v>
+      </c>
+      <c r="GX2" s="1">
+        <v>42108</v>
+      </c>
+      <c r="GY2" s="1">
+        <v>42109</v>
+      </c>
+      <c r="GZ2" s="1">
+        <v>42110</v>
+      </c>
+      <c r="HA2" s="1">
+        <v>42111</v>
+      </c>
+      <c r="HB2" s="1">
+        <v>42112</v>
+      </c>
+      <c r="HC2" s="1">
+        <v>42113</v>
+      </c>
+      <c r="HD2" s="1">
+        <v>42114</v>
+      </c>
+      <c r="HE2" s="1">
+        <v>42115</v>
+      </c>
+      <c r="HF2" s="1">
+        <v>42116</v>
+      </c>
+      <c r="HG2" s="1">
+        <v>42117</v>
+      </c>
+      <c r="HH2" s="1">
+        <v>42118</v>
+      </c>
+      <c r="HI2" s="1">
+        <v>42119</v>
+      </c>
+      <c r="HJ2" s="1">
+        <v>42120</v>
+      </c>
+      <c r="HK2" s="1">
+        <v>42121</v>
+      </c>
+      <c r="HL2" s="1">
+        <v>42122</v>
+      </c>
+      <c r="HM2" s="1">
+        <v>42123</v>
+      </c>
+      <c r="HN2" s="1">
+        <v>42124</v>
+      </c>
+      <c r="HO2" s="1">
+        <v>42125</v>
+      </c>
+      <c r="HP2" s="1">
+        <v>42126</v>
+      </c>
+      <c r="HQ2" s="1">
+        <v>42127</v>
+      </c>
+      <c r="HR2" s="1">
+        <v>42128</v>
+      </c>
+      <c r="HS2" s="1">
+        <v>42129</v>
+      </c>
+      <c r="HT2" s="1">
+        <v>42130</v>
+      </c>
+      <c r="HU2" s="1">
+        <v>42131</v>
+      </c>
+      <c r="HV2" s="1">
+        <v>42132</v>
+      </c>
+      <c r="HW2" s="1">
+        <v>42133</v>
+      </c>
+      <c r="HX2" s="1">
+        <v>42134</v>
+      </c>
+      <c r="HY2" s="1">
+        <v>42135</v>
+      </c>
+      <c r="HZ2" s="1">
+        <v>42136</v>
+      </c>
+      <c r="IA2" s="1">
+        <v>42137</v>
+      </c>
+      <c r="IB2" s="1">
+        <v>42138</v>
+      </c>
+      <c r="IC2" s="1">
+        <v>42139</v>
+      </c>
+      <c r="ID2" s="1">
+        <v>42140</v>
+      </c>
+      <c r="IE2" s="1">
+        <v>42141</v>
+      </c>
+      <c r="IF2" s="1">
+        <v>42142</v>
+      </c>
+      <c r="IG2" s="1">
+        <v>42143</v>
+      </c>
+      <c r="IH2" s="1">
+        <v>42144</v>
+      </c>
+      <c r="II2" s="1">
+        <v>42145</v>
+      </c>
+      <c r="IJ2" s="1">
+        <v>42146</v>
+      </c>
+      <c r="IK2" s="1">
+        <v>42147</v>
+      </c>
+      <c r="IL2" s="1">
+        <v>42148</v>
+      </c>
+      <c r="IM2" s="1">
+        <v>42149</v>
+      </c>
+      <c r="IN2" s="1">
+        <v>42150</v>
+      </c>
+      <c r="IO2" s="1">
+        <v>42151</v>
+      </c>
+      <c r="IP2" s="1">
+        <v>42152</v>
+      </c>
+      <c r="IQ2" s="1">
+        <v>42153</v>
+      </c>
+      <c r="IR2" s="1">
+        <v>42154</v>
+      </c>
+      <c r="IS2" s="1">
+        <v>42155</v>
+      </c>
+      <c r="IT2" s="1">
+        <v>42156</v>
+      </c>
+      <c r="IU2" s="1">
+        <v>42157</v>
+      </c>
+      <c r="IV2" s="1">
+        <v>42158</v>
+      </c>
+      <c r="IW2" s="1">
+        <v>42159</v>
+      </c>
+      <c r="IX2" s="1">
+        <v>42160</v>
+      </c>
+      <c r="IY2" s="1">
+        <v>42161</v>
+      </c>
+      <c r="IZ2" s="1">
+        <v>42162</v>
+      </c>
+      <c r="JA2" s="1">
+        <v>42163</v>
+      </c>
+      <c r="JB2" s="1">
+        <v>42164</v>
+      </c>
+      <c r="JC2" s="1">
+        <v>42165</v>
+      </c>
+      <c r="JD2" s="1">
+        <v>42166</v>
+      </c>
+      <c r="JE2" s="1">
+        <v>42167</v>
+      </c>
+      <c r="JF2" s="1">
+        <v>42168</v>
+      </c>
+      <c r="JG2" s="1">
+        <v>42169</v>
+      </c>
+      <c r="JH2" s="1">
+        <v>42170</v>
+      </c>
+      <c r="JI2" s="1">
+        <v>42171</v>
+      </c>
+      <c r="JJ2" s="1">
+        <v>42172</v>
+      </c>
+      <c r="JK2" s="1">
+        <v>42173</v>
+      </c>
+      <c r="JL2" s="1">
+        <v>42174</v>
+      </c>
+      <c r="JM2" s="1">
+        <v>42175</v>
+      </c>
+      <c r="JN2" s="1">
+        <v>42176</v>
+      </c>
+      <c r="JO2" s="1">
+        <v>42177</v>
+      </c>
+      <c r="JP2" s="1">
+        <v>42178</v>
+      </c>
+      <c r="JQ2" s="1">
+        <v>42179</v>
+      </c>
+      <c r="JR2" s="1">
+        <v>42180</v>
+      </c>
+      <c r="JS2" s="1">
+        <v>42181</v>
+      </c>
+      <c r="JT2" s="1">
+        <v>42182</v>
+      </c>
+      <c r="JU2" s="1">
+        <v>42183</v>
+      </c>
+      <c r="JV2" s="1">
+        <v>42184</v>
+      </c>
+      <c r="JW2" s="1">
+        <v>42185</v>
+      </c>
+      <c r="JX2" s="1">
+        <v>42186</v>
+      </c>
+      <c r="JY2" s="1">
+        <v>42187</v>
+      </c>
+      <c r="JZ2" s="1">
+        <v>42188</v>
+      </c>
+      <c r="KA2" s="1">
+        <v>42189</v>
+      </c>
+      <c r="KB2" s="1">
+        <v>42190</v>
+      </c>
+      <c r="KC2" s="1">
+        <v>42191</v>
+      </c>
+      <c r="KD2" s="1">
+        <v>42192</v>
+      </c>
+      <c r="KE2" s="1">
+        <v>42193</v>
+      </c>
+      <c r="KF2" s="1">
+        <v>42194</v>
+      </c>
+      <c r="KG2" s="1">
+        <v>42195</v>
+      </c>
+      <c r="KH2" s="1">
+        <v>42196</v>
+      </c>
+      <c r="KI2" s="1">
+        <v>42197</v>
+      </c>
+      <c r="KJ2" s="1">
+        <v>42198</v>
+      </c>
+      <c r="KK2" s="1">
+        <v>42199</v>
+      </c>
+      <c r="KL2" s="1">
+        <v>42200</v>
+      </c>
+      <c r="KM2" s="1">
+        <v>42201</v>
+      </c>
+      <c r="KN2" s="1">
+        <v>42202</v>
+      </c>
+      <c r="KO2" s="1">
+        <v>42203</v>
+      </c>
+      <c r="KP2" s="1">
+        <v>42204</v>
+      </c>
+      <c r="KQ2" s="1">
+        <v>42205</v>
+      </c>
+      <c r="KR2" s="1">
+        <v>42206</v>
+      </c>
+      <c r="KS2" s="1">
+        <v>42207</v>
+      </c>
+      <c r="KT2" s="1">
+        <v>42208</v>
+      </c>
+      <c r="KU2" s="1">
+        <v>42209</v>
+      </c>
+      <c r="KV2" s="1">
+        <v>42210</v>
+      </c>
+      <c r="KW2" s="1">
+        <v>42211</v>
+      </c>
+      <c r="KX2" s="1">
+        <v>42212</v>
+      </c>
+      <c r="KY2" s="1">
+        <v>42213</v>
+      </c>
+      <c r="KZ2" s="1">
+        <v>42214</v>
+      </c>
+      <c r="LA2" s="1">
+        <v>42215</v>
+      </c>
+      <c r="LB2" s="1">
+        <v>42216</v>
+      </c>
+      <c r="LC2" s="1">
+        <v>42217</v>
+      </c>
+      <c r="LD2" s="1">
+        <v>42218</v>
+      </c>
+      <c r="LE2" s="1">
+        <v>42219</v>
+      </c>
+      <c r="LF2" s="1">
+        <v>42220</v>
+      </c>
+      <c r="LG2" s="1">
+        <v>42221</v>
+      </c>
+      <c r="LH2" s="1">
+        <v>42222</v>
+      </c>
+      <c r="LI2" s="1">
+        <v>42223</v>
+      </c>
+      <c r="LJ2" s="1">
+        <v>42224</v>
+      </c>
+      <c r="LK2" s="1">
+        <v>42225</v>
+      </c>
+      <c r="LL2" s="1">
+        <v>42226</v>
+      </c>
+      <c r="LM2" s="1">
+        <v>42227</v>
+      </c>
+      <c r="LN2" s="1">
+        <v>42228</v>
+      </c>
+      <c r="LO2" s="1">
+        <v>42229</v>
+      </c>
+      <c r="LP2" s="1">
+        <v>42230</v>
+      </c>
+      <c r="LQ2" s="1">
+        <v>42231</v>
+      </c>
+      <c r="LR2" s="1">
+        <v>42232</v>
+      </c>
+      <c r="LS2" s="1">
+        <v>42233</v>
+      </c>
+      <c r="LT2" s="1">
+        <v>42234</v>
+      </c>
+      <c r="LU2" s="1">
+        <v>42235</v>
+      </c>
+      <c r="LV2" s="1">
+        <v>42236</v>
+      </c>
+      <c r="LW2" s="1">
+        <v>42237</v>
+      </c>
+      <c r="LX2" s="1">
+        <v>42238</v>
+      </c>
+      <c r="LY2" s="1">
+        <v>42239</v>
+      </c>
+      <c r="LZ2" s="1">
+        <v>42240</v>
+      </c>
+      <c r="MA2" s="1">
+        <v>42241</v>
+      </c>
+      <c r="MB2" s="1">
+        <v>42242</v>
+      </c>
+      <c r="MC2" s="1">
+        <v>42243</v>
+      </c>
+      <c r="MD2" s="1">
+        <v>42244</v>
+      </c>
+      <c r="ME2" s="1">
+        <v>42245</v>
+      </c>
+      <c r="MF2" s="1">
+        <v>42246</v>
+      </c>
+      <c r="MG2" s="1">
+        <v>42247</v>
+      </c>
+      <c r="MH2" s="1">
+        <v>42248</v>
+      </c>
+      <c r="MI2" s="1">
+        <v>42249</v>
+      </c>
+      <c r="MJ2" s="1">
+        <v>42250</v>
+      </c>
+      <c r="MK2" s="1">
+        <v>42251</v>
+      </c>
+      <c r="ML2" s="1">
+        <v>42252</v>
+      </c>
+      <c r="MM2" s="1">
+        <v>42253</v>
+      </c>
+      <c r="MN2" s="1">
+        <v>42254</v>
+      </c>
+      <c r="MO2" s="1">
+        <v>42255</v>
+      </c>
+      <c r="MP2" s="1">
+        <v>42256</v>
+      </c>
+      <c r="MQ2" s="1">
+        <v>42257</v>
+      </c>
+      <c r="MR2" s="1">
+        <v>42258</v>
+      </c>
+      <c r="MS2" s="1">
+        <v>42259</v>
+      </c>
+      <c r="MT2" s="1">
+        <v>42260</v>
+      </c>
+      <c r="MU2" s="1">
+        <v>42261</v>
+      </c>
+      <c r="MV2" s="1">
+        <v>42262</v>
+      </c>
+      <c r="MW2" s="1">
+        <v>42263</v>
+      </c>
+      <c r="MX2" s="1">
+        <v>42264</v>
+      </c>
+      <c r="MY2" s="1">
+        <v>42265</v>
+      </c>
+      <c r="MZ2" s="1">
+        <v>42266</v>
+      </c>
+      <c r="NA2" s="1">
+        <v>42267</v>
+      </c>
+      <c r="NB2" s="1">
+        <v>42268</v>
+      </c>
+      <c r="NC2" s="1">
+        <v>42269</v>
+      </c>
+      <c r="ND2" s="1">
+        <v>42270</v>
+      </c>
+      <c r="NE2" s="1">
+        <v>42271</v>
+      </c>
+      <c r="NF2" s="1">
+        <v>42272</v>
+      </c>
+      <c r="NG2" s="1">
+        <v>42273</v>
+      </c>
+      <c r="NH2" s="1">
+        <v>42274</v>
+      </c>
+      <c r="NI2" s="1">
+        <v>42275</v>
+      </c>
+      <c r="NJ2" s="1">
+        <v>42276</v>
+      </c>
+      <c r="NK2" s="1">
+        <v>42277</v>
+      </c>
+      <c r="NL2" s="1">
+        <v>42278</v>
+      </c>
+      <c r="NM2" s="1">
+        <v>42279</v>
+      </c>
+      <c r="NN2" s="1">
+        <v>42280</v>
+      </c>
+      <c r="NO2" s="1">
+        <v>42281</v>
+      </c>
+      <c r="NP2" s="1">
+        <v>42282</v>
+      </c>
+      <c r="NQ2" s="1">
+        <v>42283</v>
+      </c>
+      <c r="NR2" s="1">
+        <v>42284</v>
+      </c>
+      <c r="NS2" s="1">
+        <v>42285</v>
+      </c>
+      <c r="NT2" s="1">
+        <v>42286</v>
+      </c>
+      <c r="NU2" s="1">
+        <v>42287</v>
+      </c>
+      <c r="NV2" s="1">
+        <v>42288</v>
+      </c>
+      <c r="NW2" s="1">
+        <v>42289</v>
+      </c>
+      <c r="NX2" s="1">
+        <v>42290</v>
+      </c>
+      <c r="NY2" s="1">
+        <v>42291</v>
+      </c>
+      <c r="NZ2" s="1">
+        <v>42292</v>
+      </c>
+      <c r="OA2" s="1">
+        <v>42293</v>
+      </c>
+      <c r="OB2" s="1">
+        <v>42294</v>
+      </c>
+      <c r="OC2" s="1">
+        <v>42295</v>
+      </c>
+      <c r="OD2" s="1">
+        <v>42296</v>
+      </c>
+      <c r="OE2" s="1">
+        <v>42297</v>
+      </c>
+      <c r="OF2" s="1">
+        <v>42298</v>
+      </c>
+      <c r="OG2" s="1">
+        <v>42299</v>
+      </c>
+      <c r="OH2" s="1">
+        <v>42300</v>
+      </c>
+      <c r="OI2" s="1">
+        <v>42301</v>
+      </c>
+      <c r="OJ2" s="1">
+        <v>42302</v>
+      </c>
+      <c r="OK2" s="1">
+        <v>42303</v>
+      </c>
+      <c r="OL2" s="1">
+        <v>42304</v>
+      </c>
+      <c r="OM2" s="1">
+        <v>42305</v>
+      </c>
+      <c r="ON2" s="1">
+        <v>42306</v>
+      </c>
+      <c r="OO2" s="1">
+        <v>42307</v>
+      </c>
+      <c r="OP2" s="1">
+        <v>42308</v>
+      </c>
+      <c r="OQ2" s="1">
+        <v>42309</v>
+      </c>
+      <c r="OR2" s="1">
+        <v>42310</v>
+      </c>
+      <c r="OS2" s="1">
+        <v>42311</v>
+      </c>
+      <c r="OT2" s="1">
+        <v>42312</v>
+      </c>
+      <c r="OU2" s="1">
+        <v>42313</v>
+      </c>
+      <c r="OV2" s="1">
+        <v>42314</v>
+      </c>
+      <c r="OW2" s="1">
+        <v>42315</v>
+      </c>
+      <c r="OX2" s="1">
+        <v>42316</v>
+      </c>
+      <c r="OY2" s="1">
+        <v>42317</v>
+      </c>
+      <c r="OZ2" s="1">
+        <v>42318</v>
+      </c>
+      <c r="PA2" s="1">
+        <v>42319</v>
+      </c>
+      <c r="PB2" s="1">
+        <v>42320</v>
+      </c>
+      <c r="PC2" s="1">
+        <v>42321</v>
+      </c>
+      <c r="PD2" s="1">
+        <v>42322</v>
+      </c>
+      <c r="PE2" s="1">
+        <v>42323</v>
+      </c>
+      <c r="PF2" s="1">
+        <v>42324</v>
+      </c>
+      <c r="PG2" s="1">
+        <v>42325</v>
+      </c>
+      <c r="PH2" s="1">
+        <v>42326</v>
+      </c>
+      <c r="PI2" s="1">
+        <v>42327</v>
+      </c>
+      <c r="PJ2" s="1">
+        <v>42328</v>
+      </c>
+      <c r="PK2" s="1">
+        <v>42329</v>
+      </c>
+      <c r="PL2" s="1">
+        <v>42330</v>
+      </c>
+      <c r="PM2" s="1">
+        <v>42331</v>
+      </c>
+      <c r="PN2" s="1">
+        <v>42332</v>
+      </c>
+      <c r="PO2" s="1">
+        <v>42333</v>
+      </c>
+      <c r="PP2" s="1">
+        <v>42334</v>
+      </c>
+      <c r="PQ2" s="1">
+        <v>42335</v>
+      </c>
+      <c r="PR2" s="1">
+        <v>42336</v>
+      </c>
+      <c r="PS2" s="1">
+        <v>42337</v>
+      </c>
+      <c r="PT2" s="1">
+        <v>42338</v>
+      </c>
+      <c r="PU2" s="1">
+        <v>42339</v>
+      </c>
+      <c r="PV2" s="1">
+        <v>42340</v>
+      </c>
+      <c r="PW2" s="1">
+        <v>42341</v>
+      </c>
+      <c r="PX2" s="1">
+        <v>42342</v>
+      </c>
+      <c r="PY2" s="1">
+        <v>42343</v>
+      </c>
+      <c r="PZ2" s="1">
+        <v>42344</v>
+      </c>
+      <c r="QA2" s="1">
+        <v>42345</v>
+      </c>
+      <c r="QB2" s="1">
+        <v>42346</v>
+      </c>
+      <c r="QC2" s="1">
+        <v>42347</v>
+      </c>
+      <c r="QD2" s="1">
+        <v>42348</v>
+      </c>
+      <c r="QE2" s="1">
+        <v>42349</v>
+      </c>
+      <c r="QF2" s="1">
+        <v>42350</v>
+      </c>
+      <c r="QG2" s="1">
+        <v>42351</v>
+      </c>
+      <c r="QH2" s="1">
+        <v>42352</v>
+      </c>
+      <c r="QI2" s="1">
+        <v>42353</v>
+      </c>
+      <c r="QJ2" s="1">
+        <v>42354</v>
+      </c>
+      <c r="QK2" s="1">
+        <v>42355</v>
+      </c>
+      <c r="QL2" s="1">
+        <v>42356</v>
+      </c>
+      <c r="QM2" s="1">
+        <v>42357</v>
+      </c>
+      <c r="QN2" s="1">
+        <v>42358</v>
+      </c>
+      <c r="QO2" s="1">
+        <v>42359</v>
+      </c>
+      <c r="QP2" s="1">
+        <v>42360</v>
+      </c>
+      <c r="QQ2" s="1">
+        <v>42361</v>
+      </c>
+      <c r="QR2" s="1">
+        <v>42362</v>
+      </c>
+      <c r="QS2" s="1">
+        <v>42363</v>
+      </c>
+      <c r="QT2" s="1">
+        <v>42364</v>
+      </c>
+      <c r="QU2" s="1">
+        <v>42365</v>
+      </c>
+      <c r="QV2" s="1">
+        <v>42366</v>
+      </c>
+      <c r="QW2" s="1">
+        <v>42367</v>
+      </c>
+      <c r="QX2" s="1">
+        <v>42368</v>
+      </c>
+      <c r="QY2" s="1">
+        <v>42369</v>
+      </c>
+      <c r="QZ2" s="1">
+        <v>42370</v>
+      </c>
+      <c r="RA2" s="1">
+        <v>42371</v>
+      </c>
+      <c r="RB2" s="1">
+        <v>42372</v>
+      </c>
+      <c r="RC2" s="1">
+        <v>42373</v>
+      </c>
+      <c r="RD2" s="1">
+        <v>42374</v>
+      </c>
+      <c r="RE2" s="1">
+        <v>42375</v>
+      </c>
+      <c r="RF2" s="1">
+        <v>42376</v>
+      </c>
+      <c r="RG2" s="1">
+        <v>42377</v>
+      </c>
+      <c r="RH2" s="1">
+        <v>42378</v>
+      </c>
+      <c r="RI2" s="1">
+        <v>42379</v>
+      </c>
+      <c r="RJ2" s="1">
+        <v>42380</v>
+      </c>
+      <c r="RK2" s="1">
+        <v>42381</v>
+      </c>
+      <c r="RL2" s="1">
+        <v>42382</v>
+      </c>
+      <c r="RM2" s="1">
+        <v>42383</v>
+      </c>
+      <c r="RN2" s="1">
+        <v>42384</v>
+      </c>
+      <c r="RO2" s="1">
+        <v>42385</v>
+      </c>
+      <c r="RP2" s="1">
+        <v>42386</v>
+      </c>
+      <c r="RQ2" s="1">
+        <v>42387</v>
+      </c>
+      <c r="RR2" s="1">
+        <v>42388</v>
+      </c>
+      <c r="RS2" s="1">
+        <v>42389</v>
+      </c>
+      <c r="RT2" s="1">
+        <v>42390</v>
+      </c>
+      <c r="RU2" s="1">
+        <v>42391</v>
+      </c>
+      <c r="RV2" s="1">
+        <v>42392</v>
+      </c>
+      <c r="RW2" s="1">
+        <v>42393</v>
+      </c>
+      <c r="RX2" s="1">
+        <v>42394</v>
+      </c>
+      <c r="RY2" s="1">
+        <v>42395</v>
+      </c>
+      <c r="RZ2" s="1">
+        <v>42396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:494">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:494">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:494">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:494">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:494">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:494">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:494">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:494">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:494">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="F11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:494">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:494">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:494">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:494">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:494">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
       <c r="A65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1">
       <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1">
       <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1">
       <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1">
       <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1">
       <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1">
       <c r="A80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1">
       <c r="A81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1">
       <c r="A82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1">
       <c r="A83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1">
       <c r="A84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1">
       <c r="A85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1">
       <c r="A86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1">
       <c r="A87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1">
       <c r="A88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1">
       <c r="A89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1">
       <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1">
       <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1">
       <c r="A96">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1">
       <c r="A97">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1">
       <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1">
       <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1">
       <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1">
       <c r="A101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1">
       <c r="A102">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1">
       <c r="A103">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1">
       <c r="A104">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1">
       <c r="A105">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1">
       <c r="A106">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1">
       <c r="A107">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1">
       <c r="A108">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1">
       <c r="A109">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1">
       <c r="A110">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1">
       <c r="A111">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1">
       <c r="A112">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1">
       <c r="A113">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1">
       <c r="A114">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1">
       <c r="A115">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1">
       <c r="A116">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1">
       <c r="A117">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1">
       <c r="A118">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1">
       <c r="A119">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1">
       <c r="A120">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1">
       <c r="A121">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1">
       <c r="A122">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1">
       <c r="A123">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1">
       <c r="A124">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1">
       <c r="A125">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1">
       <c r="A126">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1">
       <c r="A127">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1">
       <c r="A128">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1">
       <c r="A129">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1">
       <c r="A130">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1">
       <c r="A131">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1">
       <c r="A132">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1">
       <c r="A133">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1">
       <c r="A134">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1">
       <c r="A135">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1">
       <c r="A136">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1">
       <c r="A137">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1">
       <c r="A138">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1">
       <c r="A139">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1">
       <c r="A140">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1">
       <c r="A141">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1">
       <c r="A142">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1">
       <c r="A143">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1">
       <c r="A144">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1">
       <c r="A145">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1">
       <c r="A146">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1">
       <c r="A147">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1">
       <c r="A148">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1">
       <c r="A149">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1">
       <c r="A150">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1">
       <c r="A151">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1">
       <c r="A152">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1">
       <c r="A153">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1">
       <c r="A154">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1">
       <c r="A155">
         <v>153</v>
       </c>
@@ -1626,45 +5030,56 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:D1 C3:D1048576">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>"已上线"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"开发中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"废弃"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"周7"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"周6"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="30"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+        <cfvo type="percent" val="100"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1703,4 +5118,424 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="10" max="10" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="J13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="5">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="4">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="4">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="4">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="4">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="4">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="4">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="4">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="4">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="4">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="4">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="4">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="4">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="4">
+        <v>20</v>
+      </c>
+      <c r="K41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="4">
+        <v>40</v>
+      </c>
+      <c r="K42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" s="4">
+        <v>40</v>
+      </c>
+      <c r="K43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="J56" s="4">
+        <v>8</v>
+      </c>
+      <c r="K56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" s="4">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="J58" s="4">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="J59" s="4">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan/TimeLine.xlsx
+++ b/plan/TimeLine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作计划表!$C$1:$F$155</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,17 +261,45 @@
   </si>
   <si>
     <t>单位:小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙振亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值体系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,18 +358,503 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -430,72 +943,6 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFCC0000"/>
       <color rgb="FFFF6600"/>
@@ -520,7 +967,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -555,7 +1002,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,9 +1034,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,6 +1069,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -796,41 +1245,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:RZ155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="1" max="1" width="5.875" style="2" customWidth="1"/>
+    <col min="2" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="9" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:494" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="str">
@@ -2782,14 +3234,14 @@
         <v>周3</v>
       </c>
     </row>
-    <row r="2" spans="1:494" s="2" customFormat="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+    <row r="2" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="1">
         <v>41910</v>
       </c>
@@ -4252,768 +4704,822 @@
         <v>42396</v>
       </c>
     </row>
-    <row r="3" spans="1:494">
-      <c r="A3">
+    <row r="3" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:494">
-      <c r="A4">
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:494">
-      <c r="A5">
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:494">
-      <c r="A6">
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:494">
-      <c r="A7">
+    <row r="7" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:494">
-      <c r="A8">
+    <row r="8" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:494">
-      <c r="A9">
+    <row r="9" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:494">
-      <c r="A10">
+    <row r="10" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:494">
-      <c r="A11">
+    <row r="11" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:494">
-      <c r="A12">
+    <row r="12" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:494">
-      <c r="A13">
+    <row r="13" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:494">
-      <c r="A14">
+    <row r="14" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:494">
-      <c r="A15">
+    <row r="15" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:494">
-      <c r="A16">
+    <row r="16" spans="1:494" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="2">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="2">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2">
         <v>153</v>
       </c>
     </row>
@@ -5030,49 +5536,49 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:D1 C3:D1048576">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
-      <formula>"已上线"</formula>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"废弃"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"开发中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
-      <formula>"废弃"</formula>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"已上线"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"周6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"周7"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"周6"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="5">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="30"/>
@@ -5082,13 +5588,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"测"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"美"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"技"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"策"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{E69BE6E1-29CC-4EB8-8916-D95B7B58C523}">
+          <x14:cfRule type="iconSet" priority="23" id="{E69BE6E1-29CC-4EB8-8916-D95B7B58C523}">
             <x14:iconSet iconSet="5Rating" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5121,24 +5641,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="10" max="10" width="9" style="4"/>
+    <col min="10" max="10" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5146,390 +5666,390 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="J13" s="4" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J13" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>57</v>
       </c>
       <c r="K14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>3</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>1</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>10</v>
       </c>
       <c r="K23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>4</v>
       </c>
       <c r="K24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>2</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>2</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>2</v>
       </c>
       <c r="K27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>2</v>
       </c>
       <c r="K28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>2</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>1</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <v>2</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <v>2</v>
       </c>
       <c r="K32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>2</v>
       </c>
       <c r="K33">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <v>4</v>
       </c>
       <c r="K34">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3">
         <v>8</v>
       </c>
       <c r="K40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3">
         <v>20</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="3">
         <v>40</v>
       </c>
       <c r="K42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="3">
         <v>40</v>
       </c>
       <c r="K43">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>50</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="3">
         <v>8</v>
       </c>
       <c r="K56">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>51</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="3">
         <v>5</v>
       </c>
       <c r="K57">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>52</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="3">
         <v>20</v>
       </c>
       <c r="K58">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>53</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="3">
         <v>10</v>
       </c>
       <c r="K59">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>54</v>
       </c>
